--- a/新版ERP固定资产格式模板20181123.xlsx
+++ b/新版ERP固定资产格式模板20181123.xlsx
@@ -652,7 +652,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15:G18"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="D24:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>

--- a/新版ERP固定资产格式模板20181123.xlsx
+++ b/新版ERP固定资产格式模板20181123.xlsx
@@ -652,7 +652,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="D24:G25"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -660,10 +660,10 @@
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
@@ -682,17 +682,17 @@
       <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>25</v>
@@ -723,15 +723,15 @@
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="4" t="s">
@@ -760,17 +760,17 @@
       <c r="C3" s="9">
         <v>410001</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="F3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>5</v>
@@ -797,17 +797,17 @@
       <c r="C4" s="9">
         <v>410001</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>7</v>
@@ -834,17 +834,17 @@
       <c r="C5" s="9">
         <v>410002</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>10</v>
@@ -871,17 +871,17 @@
       <c r="C6" s="9">
         <v>410002</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>10</v>
@@ -908,17 +908,17 @@
       <c r="C7" s="9">
         <v>420001</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>10</v>
@@ -938,17 +938,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>10</v>
@@ -958,17 +958,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>10</v>
@@ -978,17 +978,17 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.2">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>10</v>
@@ -998,17 +998,17 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="F11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>5</v>
@@ -1018,17 +1018,17 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>7</v>
@@ -1038,17 +1038,17 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="F13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>10</v>
@@ -1058,17 +1058,17 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>10</v>
@@ -1078,17 +1078,17 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.2">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>10</v>
@@ -1098,17 +1098,17 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="F16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>10</v>
@@ -1118,17 +1118,17 @@
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="F17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>10</v>
@@ -1138,17 +1138,17 @@
       </c>
     </row>
     <row r="18" spans="4:9" ht="27" x14ac:dyDescent="0.2">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>10</v>
@@ -1166,7 +1166,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"开创集团,SMG(百度),开创云,企业服务部,投资部,乐才销售部,传媒公司,开创互联网,服务管理部,集团KA事业部,百度金融,山东开创基金管理公司"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>"开创集团,开创云软件,开创互联网,开创投资,开创企业服务,枣庄子公司,聊城子公司,德州子公司,滨州子公司,东营子公司,淄博子公司,济南乐才,传媒公司,开创基金"</formula1>
     </dataValidation>
   </dataValidations>
